--- a/inst/extdata/pandemic_legislation.xlsx
+++ b/inst/extdata/pandemic_legislation.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/Fiscal-Impact-Measure/data/pandemic-legislation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/fim/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB1BCD9-EEEB-4B48-BF82-5EF70FA111EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B10F2C7-EB37-9941-896F-B120346649E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19380" activeTab="2" xr2:uid="{32B8EDEA-5FD5-412D-8D15-F127A7E2E8F1}"/>
+    <workbookView xWindow="3780" yWindow="680" windowWidth="33600" windowHeight="19380" xr2:uid="{32B8EDEA-5FD5-412D-8D15-F127A7E2E8F1}"/>
   </bookViews>
   <sheets>
-    <sheet name="monthly" sheetId="2" r:id="rId1"/>
-    <sheet name="quarterly" sheetId="6" r:id="rId2"/>
-    <sheet name="annual" sheetId="7" r:id="rId3"/>
-    <sheet name="bea-monthly" sheetId="1" r:id="rId4"/>
-    <sheet name="bea-quarterly" sheetId="8" r:id="rId5"/>
-    <sheet name="cbo-annual" sheetId="5" r:id="rId6"/>
-    <sheet name="stimulus-annual" sheetId="9" r:id="rId7"/>
+    <sheet name="RRA" sheetId="10" r:id="rId1"/>
+    <sheet name="monthly" sheetId="2" r:id="rId2"/>
+    <sheet name="quarterly" sheetId="6" r:id="rId3"/>
+    <sheet name="annual" sheetId="7" r:id="rId4"/>
+    <sheet name="bea-monthly" sheetId="1" r:id="rId5"/>
+    <sheet name="bea-quarterly" sheetId="8" r:id="rId6"/>
+    <sheet name="cbo-annual" sheetId="5" r:id="rId7"/>
+    <sheet name="stimulus-annual" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="227">
   <si>
     <t>Levels</t>
   </si>
@@ -1028,6 +1029,138 @@
   <si>
     <t>education_stabilization_fund</t>
   </si>
+  <si>
+    <t>legislation</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>RRA</t>
+  </si>
+  <si>
+    <t>subsidies</t>
+  </si>
+  <si>
+    <t>ppp</t>
+  </si>
+  <si>
+    <t>economic_injury_disaster_loan</t>
+  </si>
+  <si>
+    <t>aviation</t>
+  </si>
+  <si>
+    <t>shuttered_venues</t>
+  </si>
+  <si>
+    <t>aid_to_small_business</t>
+  </si>
+  <si>
+    <t>tax_cuts</t>
+  </si>
+  <si>
+    <t>employee_retention_credit</t>
+  </si>
+  <si>
+    <t>business_meals</t>
+  </si>
+  <si>
+    <t>social_benefits</t>
+  </si>
+  <si>
+    <t>eitc</t>
+  </si>
+  <si>
+    <t>charitable_tax_breaks</t>
+  </si>
+  <si>
+    <t>other_tax_cuts</t>
+  </si>
+  <si>
+    <t>paid_leave</t>
+  </si>
+  <si>
+    <t>direct_payments</t>
+  </si>
+  <si>
+    <t>rebate_checks</t>
+  </si>
+  <si>
+    <t>income_support</t>
+  </si>
+  <si>
+    <t>federal_ui</t>
+  </si>
+  <si>
+    <t>nutrition</t>
+  </si>
+  <si>
+    <t>child_family_services</t>
+  </si>
+  <si>
+    <t>health_outlays</t>
+  </si>
+  <si>
+    <t>covid_prepardness_response</t>
+  </si>
+  <si>
+    <t>vaccines</t>
+  </si>
+  <si>
+    <t>supplemental_heealth_agency_funding</t>
+  </si>
+  <si>
+    <t>medicare_sequester</t>
+  </si>
+  <si>
+    <t>grants_to_providers</t>
+  </si>
+  <si>
+    <t>medicare_physician_fee</t>
+  </si>
+  <si>
+    <t>grants_to_states</t>
+  </si>
+  <si>
+    <t>consumption_grants</t>
+  </si>
+  <si>
+    <t>education_relief_fund</t>
+  </si>
+  <si>
+    <t>transit</t>
+  </si>
+  <si>
+    <t>infrastructure</t>
+  </si>
+  <si>
+    <t>other_spending</t>
+  </si>
+  <si>
+    <t>housing_support</t>
+  </si>
+  <si>
+    <t>minority_leaders_support</t>
+  </si>
+  <si>
+    <t>farmers</t>
+  </si>
+  <si>
+    <t>telecommunications</t>
+  </si>
+  <si>
+    <t>transportation</t>
+  </si>
 </sst>
 </file>
 
@@ -1038,7 +1171,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="172" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -2048,64 +2181,64 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="4" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -2426,6 +2559,555 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A649E31-A8B1-984D-A29C-20A5826B2B14}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E9">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E10">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E11">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" t="s">
+        <v>206</v>
+      </c>
+      <c r="E14">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" t="s">
+        <v>207</v>
+      </c>
+      <c r="E15">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E16">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" t="s">
+        <v>209</v>
+      </c>
+      <c r="D17" t="s">
+        <v>210</v>
+      </c>
+      <c r="E17">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C18" t="s">
+        <v>209</v>
+      </c>
+      <c r="D18" t="s">
+        <v>211</v>
+      </c>
+      <c r="E18">
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" t="s">
+        <v>212</v>
+      </c>
+      <c r="E19">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>188</v>
+      </c>
+      <c r="B20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D20" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D21" t="s">
+        <v>214</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>188</v>
+      </c>
+      <c r="B22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D22" t="s">
+        <v>215</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>188</v>
+      </c>
+      <c r="B23" t="s">
+        <v>216</v>
+      </c>
+      <c r="C23" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" t="s">
+        <v>218</v>
+      </c>
+      <c r="E23">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>188</v>
+      </c>
+      <c r="B24" t="s">
+        <v>216</v>
+      </c>
+      <c r="C24" t="s">
+        <v>217</v>
+      </c>
+      <c r="D24" t="s">
+        <v>219</v>
+      </c>
+      <c r="E24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C25" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" t="s">
+        <v>220</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26" t="s">
+        <v>221</v>
+      </c>
+      <c r="C26" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" t="s">
+        <v>222</v>
+      </c>
+      <c r="E26">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>188</v>
+      </c>
+      <c r="B27" t="s">
+        <v>221</v>
+      </c>
+      <c r="C27" t="s">
+        <v>217</v>
+      </c>
+      <c r="D27" t="s">
+        <v>182</v>
+      </c>
+      <c r="E27">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" t="s">
+        <v>221</v>
+      </c>
+      <c r="C28" t="s">
+        <v>217</v>
+      </c>
+      <c r="D28" t="s">
+        <v>223</v>
+      </c>
+      <c r="E28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" t="s">
+        <v>221</v>
+      </c>
+      <c r="C29" t="s">
+        <v>217</v>
+      </c>
+      <c r="D29" t="s">
+        <v>224</v>
+      </c>
+      <c r="E29">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30" t="s">
+        <v>221</v>
+      </c>
+      <c r="C30" t="s">
+        <v>217</v>
+      </c>
+      <c r="D30" t="s">
+        <v>225</v>
+      </c>
+      <c r="E30">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>188</v>
+      </c>
+      <c r="B31" t="s">
+        <v>221</v>
+      </c>
+      <c r="C31" t="s">
+        <v>217</v>
+      </c>
+      <c r="D31" t="s">
+        <v>226</v>
+      </c>
+      <c r="E31">
+        <v>5.0199999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4350B0-7EFA-EC47-A473-1BBCEF7CE688}">
   <dimension ref="A1:J6"/>
   <sheetViews>
@@ -2655,7 +3337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A83CAF-5C60-524C-BBCE-DFEAD13E2D00}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -2733,11 +3415,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42E7E7A-1813-1D4C-9381-12D9A6751513}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -2891,7 +3573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43063354-354D-43F4-BA31-2DC297D0C41A}">
   <dimension ref="A1:Q90"/>
   <sheetViews>
@@ -2916,92 +3598,92 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="151"/>
-      <c r="Q2" s="151"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="158"/>
+      <c r="M2" s="158"/>
+      <c r="N2" s="158"/>
+      <c r="O2" s="158"/>
+      <c r="P2" s="158"/>
+      <c r="Q2" s="158"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="151" t="s">
+      <c r="A3" s="158" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="151"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="151"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="158"/>
+      <c r="M3" s="158"/>
+      <c r="N3" s="158"/>
+      <c r="O3" s="158"/>
+      <c r="P3" s="158"/>
+      <c r="Q3" s="158"/>
     </row>
     <row r="4" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="152"/>
-      <c r="B4" s="152"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="151"/>
-      <c r="L4" s="151"/>
-      <c r="M4" s="151"/>
-      <c r="N4" s="151"/>
+      <c r="A4" s="159"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="158"/>
+      <c r="J4" s="158"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="158"/>
+      <c r="M4" s="158"/>
+      <c r="N4" s="158"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="155"/>
+      <c r="C5" s="160" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="162"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="156">
+      <c r="C6" s="163">
         <v>2020</v>
       </c>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="158"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="164"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="165"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
@@ -4785,7 +5467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66061241-D2E5-254C-A728-630365842011}">
   <dimension ref="A1:M90"/>
   <sheetViews>
@@ -4800,88 +5482,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J1" s="160" t="s">
+      <c r="J1" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="158" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="158"/>
+      <c r="M2" s="158"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="151" t="s">
+      <c r="A3" s="158" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="158"/>
+      <c r="M3" s="158"/>
     </row>
     <row r="4" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="151"/>
-      <c r="B4" s="151"/>
-      <c r="C4" s="151"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="151"/>
-      <c r="L4" s="151"/>
+      <c r="A4" s="158"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="158"/>
+      <c r="J4" s="158"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="158"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="155"/>
+      <c r="C5" s="160" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="162"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="156">
+      <c r="C6" s="163">
         <v>2019</v>
       </c>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="159">
+      <c r="D6" s="164"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="166">
         <v>2020</v>
       </c>
-      <c r="G6" s="157"/>
-      <c r="H6" s="158"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="165"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
@@ -6289,7 +6971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19945DE2-1D98-6641-B7A4-77D39C7DDCD9}">
   <dimension ref="A1:P62"/>
   <sheetViews>
@@ -6313,24 +6995,24 @@
       <c r="C2" s="63"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="161" t="s">
+      <c r="A5" s="169" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="162"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="162"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="162"/>
-      <c r="H5" s="162"/>
-      <c r="I5" s="162"/>
-      <c r="J5" s="162"/>
-      <c r="K5" s="162"/>
-      <c r="L5" s="162"/>
-      <c r="M5" s="162"/>
-      <c r="N5" s="162"/>
-      <c r="O5" s="162"/>
-      <c r="P5" s="162"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="170"/>
+      <c r="H5" s="170"/>
+      <c r="I5" s="170"/>
+      <c r="J5" s="170"/>
+      <c r="K5" s="170"/>
+      <c r="L5" s="170"/>
+      <c r="M5" s="170"/>
+      <c r="N5" s="170"/>
+      <c r="O5" s="170"/>
+      <c r="P5" s="170"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="64" t="s">
@@ -6385,10 +7067,10 @@
       <c r="L8" s="53"/>
       <c r="M8" s="53"/>
       <c r="N8" s="53"/>
-      <c r="O8" s="163" t="s">
+      <c r="O8" s="171" t="s">
         <v>86</v>
       </c>
-      <c r="P8" s="163"/>
+      <c r="P8" s="171"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="53"/>
@@ -7415,96 +8097,96 @@
       <c r="P35" s="75"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="164" t="s">
+      <c r="A36" s="172" t="s">
         <v>124</v>
       </c>
-      <c r="B36" s="164"/>
-      <c r="C36" s="164"/>
-      <c r="D36" s="164"/>
-      <c r="E36" s="164"/>
-      <c r="F36" s="164"/>
-      <c r="G36" s="164"/>
-      <c r="H36" s="164"/>
-      <c r="I36" s="164"/>
-      <c r="J36" s="164"/>
-      <c r="K36" s="164"/>
-      <c r="L36" s="164"/>
-      <c r="M36" s="164"/>
-      <c r="N36" s="164"/>
-      <c r="O36" s="164"/>
-      <c r="P36" s="164"/>
+      <c r="B36" s="172"/>
+      <c r="C36" s="172"/>
+      <c r="D36" s="172"/>
+      <c r="E36" s="172"/>
+      <c r="F36" s="172"/>
+      <c r="G36" s="172"/>
+      <c r="H36" s="172"/>
+      <c r="I36" s="172"/>
+      <c r="J36" s="172"/>
+      <c r="K36" s="172"/>
+      <c r="L36" s="172"/>
+      <c r="M36" s="172"/>
+      <c r="N36" s="172"/>
+      <c r="O36" s="172"/>
+      <c r="P36" s="172"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="164"/>
-      <c r="B37" s="164"/>
-      <c r="C37" s="164"/>
-      <c r="D37" s="164"/>
-      <c r="E37" s="164"/>
-      <c r="F37" s="164"/>
-      <c r="G37" s="164"/>
-      <c r="H37" s="164"/>
-      <c r="I37" s="164"/>
-      <c r="J37" s="164"/>
-      <c r="K37" s="164"/>
-      <c r="L37" s="164"/>
-      <c r="M37" s="164"/>
-      <c r="N37" s="164"/>
-      <c r="O37" s="164"/>
-      <c r="P37" s="164"/>
+      <c r="A37" s="172"/>
+      <c r="B37" s="172"/>
+      <c r="C37" s="172"/>
+      <c r="D37" s="172"/>
+      <c r="E37" s="172"/>
+      <c r="F37" s="172"/>
+      <c r="G37" s="172"/>
+      <c r="H37" s="172"/>
+      <c r="I37" s="172"/>
+      <c r="J37" s="172"/>
+      <c r="K37" s="172"/>
+      <c r="L37" s="172"/>
+      <c r="M37" s="172"/>
+      <c r="N37" s="172"/>
+      <c r="O37" s="172"/>
+      <c r="P37" s="172"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="164"/>
-      <c r="B38" s="164"/>
-      <c r="C38" s="164"/>
-      <c r="D38" s="164"/>
-      <c r="E38" s="164"/>
-      <c r="F38" s="164"/>
-      <c r="G38" s="164"/>
-      <c r="H38" s="164"/>
-      <c r="I38" s="164"/>
-      <c r="J38" s="164"/>
-      <c r="K38" s="164"/>
-      <c r="L38" s="164"/>
-      <c r="M38" s="164"/>
-      <c r="N38" s="164"/>
-      <c r="O38" s="164"/>
-      <c r="P38" s="164"/>
+      <c r="A38" s="172"/>
+      <c r="B38" s="172"/>
+      <c r="C38" s="172"/>
+      <c r="D38" s="172"/>
+      <c r="E38" s="172"/>
+      <c r="F38" s="172"/>
+      <c r="G38" s="172"/>
+      <c r="H38" s="172"/>
+      <c r="I38" s="172"/>
+      <c r="J38" s="172"/>
+      <c r="K38" s="172"/>
+      <c r="L38" s="172"/>
+      <c r="M38" s="172"/>
+      <c r="N38" s="172"/>
+      <c r="O38" s="172"/>
+      <c r="P38" s="172"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="164"/>
-      <c r="B39" s="164"/>
-      <c r="C39" s="164"/>
-      <c r="D39" s="164"/>
-      <c r="E39" s="164"/>
-      <c r="F39" s="164"/>
-      <c r="G39" s="164"/>
-      <c r="H39" s="164"/>
-      <c r="I39" s="164"/>
-      <c r="J39" s="164"/>
-      <c r="K39" s="164"/>
-      <c r="L39" s="164"/>
-      <c r="M39" s="164"/>
-      <c r="N39" s="164"/>
-      <c r="O39" s="164"/>
-      <c r="P39" s="164"/>
+      <c r="A39" s="172"/>
+      <c r="B39" s="172"/>
+      <c r="C39" s="172"/>
+      <c r="D39" s="172"/>
+      <c r="E39" s="172"/>
+      <c r="F39" s="172"/>
+      <c r="G39" s="172"/>
+      <c r="H39" s="172"/>
+      <c r="I39" s="172"/>
+      <c r="J39" s="172"/>
+      <c r="K39" s="172"/>
+      <c r="L39" s="172"/>
+      <c r="M39" s="172"/>
+      <c r="N39" s="172"/>
+      <c r="O39" s="172"/>
+      <c r="P39" s="172"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="164"/>
-      <c r="B40" s="164"/>
-      <c r="C40" s="164"/>
-      <c r="D40" s="164"/>
-      <c r="E40" s="164"/>
-      <c r="F40" s="164"/>
-      <c r="G40" s="164"/>
-      <c r="H40" s="164"/>
-      <c r="I40" s="164"/>
-      <c r="J40" s="164"/>
-      <c r="K40" s="164"/>
-      <c r="L40" s="164"/>
-      <c r="M40" s="164"/>
-      <c r="N40" s="164"/>
-      <c r="O40" s="164"/>
-      <c r="P40" s="164"/>
+      <c r="A40" s="172"/>
+      <c r="B40" s="172"/>
+      <c r="C40" s="172"/>
+      <c r="D40" s="172"/>
+      <c r="E40" s="172"/>
+      <c r="F40" s="172"/>
+      <c r="G40" s="172"/>
+      <c r="H40" s="172"/>
+      <c r="I40" s="172"/>
+      <c r="J40" s="172"/>
+      <c r="K40" s="172"/>
+      <c r="L40" s="172"/>
+      <c r="M40" s="172"/>
+      <c r="N40" s="172"/>
+      <c r="O40" s="172"/>
+      <c r="P40" s="172"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="77"/>
@@ -7525,60 +8207,60 @@
       <c r="P41" s="77"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="164" t="s">
+      <c r="A42" s="172" t="s">
         <v>125</v>
       </c>
-      <c r="B42" s="164"/>
-      <c r="C42" s="164"/>
-      <c r="D42" s="164"/>
-      <c r="E42" s="164"/>
-      <c r="F42" s="164"/>
-      <c r="G42" s="164"/>
-      <c r="H42" s="164"/>
-      <c r="I42" s="164"/>
-      <c r="J42" s="164"/>
-      <c r="K42" s="164"/>
-      <c r="L42" s="164"/>
-      <c r="M42" s="164"/>
-      <c r="N42" s="164"/>
-      <c r="O42" s="164"/>
-      <c r="P42" s="164"/>
+      <c r="B42" s="172"/>
+      <c r="C42" s="172"/>
+      <c r="D42" s="172"/>
+      <c r="E42" s="172"/>
+      <c r="F42" s="172"/>
+      <c r="G42" s="172"/>
+      <c r="H42" s="172"/>
+      <c r="I42" s="172"/>
+      <c r="J42" s="172"/>
+      <c r="K42" s="172"/>
+      <c r="L42" s="172"/>
+      <c r="M42" s="172"/>
+      <c r="N42" s="172"/>
+      <c r="O42" s="172"/>
+      <c r="P42" s="172"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="164"/>
-      <c r="B43" s="164"/>
-      <c r="C43" s="164"/>
-      <c r="D43" s="164"/>
-      <c r="E43" s="164"/>
-      <c r="F43" s="164"/>
-      <c r="G43" s="164"/>
-      <c r="H43" s="164"/>
-      <c r="I43" s="164"/>
-      <c r="J43" s="164"/>
-      <c r="K43" s="164"/>
-      <c r="L43" s="164"/>
-      <c r="M43" s="164"/>
-      <c r="N43" s="164"/>
-      <c r="O43" s="164"/>
-      <c r="P43" s="164"/>
+      <c r="A43" s="172"/>
+      <c r="B43" s="172"/>
+      <c r="C43" s="172"/>
+      <c r="D43" s="172"/>
+      <c r="E43" s="172"/>
+      <c r="F43" s="172"/>
+      <c r="G43" s="172"/>
+      <c r="H43" s="172"/>
+      <c r="I43" s="172"/>
+      <c r="J43" s="172"/>
+      <c r="K43" s="172"/>
+      <c r="L43" s="172"/>
+      <c r="M43" s="172"/>
+      <c r="N43" s="172"/>
+      <c r="O43" s="172"/>
+      <c r="P43" s="172"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="164"/>
-      <c r="B44" s="164"/>
-      <c r="C44" s="164"/>
-      <c r="D44" s="164"/>
-      <c r="E44" s="164"/>
-      <c r="F44" s="164"/>
-      <c r="G44" s="164"/>
-      <c r="H44" s="164"/>
-      <c r="I44" s="164"/>
-      <c r="J44" s="164"/>
-      <c r="K44" s="164"/>
-      <c r="L44" s="164"/>
-      <c r="M44" s="164"/>
-      <c r="N44" s="164"/>
-      <c r="O44" s="164"/>
-      <c r="P44" s="164"/>
+      <c r="A44" s="172"/>
+      <c r="B44" s="172"/>
+      <c r="C44" s="172"/>
+      <c r="D44" s="172"/>
+      <c r="E44" s="172"/>
+      <c r="F44" s="172"/>
+      <c r="G44" s="172"/>
+      <c r="H44" s="172"/>
+      <c r="I44" s="172"/>
+      <c r="J44" s="172"/>
+      <c r="K44" s="172"/>
+      <c r="L44" s="172"/>
+      <c r="M44" s="172"/>
+      <c r="N44" s="172"/>
+      <c r="O44" s="172"/>
+      <c r="P44" s="172"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="75"/>
@@ -7599,42 +8281,42 @@
       <c r="P45" s="75"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="165" t="s">
+      <c r="A46" s="173" t="s">
         <v>126</v>
       </c>
-      <c r="B46" s="166"/>
-      <c r="C46" s="166"/>
-      <c r="D46" s="166"/>
-      <c r="E46" s="166"/>
-      <c r="F46" s="166"/>
-      <c r="G46" s="166"/>
-      <c r="H46" s="166"/>
-      <c r="I46" s="166"/>
-      <c r="J46" s="166"/>
-      <c r="K46" s="166"/>
-      <c r="L46" s="166"/>
-      <c r="M46" s="166"/>
-      <c r="N46" s="166"/>
-      <c r="O46" s="166"/>
-      <c r="P46" s="166"/>
+      <c r="B46" s="174"/>
+      <c r="C46" s="174"/>
+      <c r="D46" s="174"/>
+      <c r="E46" s="174"/>
+      <c r="F46" s="174"/>
+      <c r="G46" s="174"/>
+      <c r="H46" s="174"/>
+      <c r="I46" s="174"/>
+      <c r="J46" s="174"/>
+      <c r="K46" s="174"/>
+      <c r="L46" s="174"/>
+      <c r="M46" s="174"/>
+      <c r="N46" s="174"/>
+      <c r="O46" s="174"/>
+      <c r="P46" s="174"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="166"/>
-      <c r="B47" s="166"/>
-      <c r="C47" s="166"/>
-      <c r="D47" s="166"/>
-      <c r="E47" s="166"/>
-      <c r="F47" s="166"/>
-      <c r="G47" s="166"/>
-      <c r="H47" s="166"/>
-      <c r="I47" s="166"/>
-      <c r="J47" s="166"/>
-      <c r="K47" s="166"/>
-      <c r="L47" s="166"/>
-      <c r="M47" s="166"/>
-      <c r="N47" s="166"/>
-      <c r="O47" s="166"/>
-      <c r="P47" s="166"/>
+      <c r="A47" s="174"/>
+      <c r="B47" s="174"/>
+      <c r="C47" s="174"/>
+      <c r="D47" s="174"/>
+      <c r="E47" s="174"/>
+      <c r="F47" s="174"/>
+      <c r="G47" s="174"/>
+      <c r="H47" s="174"/>
+      <c r="I47" s="174"/>
+      <c r="J47" s="174"/>
+      <c r="K47" s="174"/>
+      <c r="L47" s="174"/>
+      <c r="M47" s="174"/>
+      <c r="N47" s="174"/>
+      <c r="O47" s="174"/>
+      <c r="P47" s="174"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="75"/>
@@ -7655,196 +8337,196 @@
       <c r="P48" s="75"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="167" t="s">
+      <c r="A49" s="168" t="s">
         <v>127</v>
       </c>
-      <c r="B49" s="167"/>
-      <c r="C49" s="167"/>
-      <c r="D49" s="167"/>
-      <c r="E49" s="167"/>
-      <c r="F49" s="167"/>
-      <c r="G49" s="167"/>
-      <c r="H49" s="167"/>
-      <c r="I49" s="167"/>
-      <c r="J49" s="167"/>
-      <c r="K49" s="167"/>
-      <c r="L49" s="167"/>
-      <c r="M49" s="167"/>
-      <c r="N49" s="167"/>
-      <c r="O49" s="167"/>
-      <c r="P49" s="167"/>
+      <c r="B49" s="168"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="168"/>
+      <c r="E49" s="168"/>
+      <c r="F49" s="168"/>
+      <c r="G49" s="168"/>
+      <c r="H49" s="168"/>
+      <c r="I49" s="168"/>
+      <c r="J49" s="168"/>
+      <c r="K49" s="168"/>
+      <c r="L49" s="168"/>
+      <c r="M49" s="168"/>
+      <c r="N49" s="168"/>
+      <c r="O49" s="168"/>
+      <c r="P49" s="168"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="167"/>
-      <c r="B50" s="167"/>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
-      <c r="E50" s="167"/>
-      <c r="F50" s="167"/>
-      <c r="G50" s="167"/>
-      <c r="H50" s="167"/>
-      <c r="I50" s="167"/>
-      <c r="J50" s="167"/>
-      <c r="K50" s="167"/>
-      <c r="L50" s="167"/>
-      <c r="M50" s="167"/>
-      <c r="N50" s="167"/>
-      <c r="O50" s="167"/>
-      <c r="P50" s="167"/>
+      <c r="A50" s="168"/>
+      <c r="B50" s="168"/>
+      <c r="C50" s="168"/>
+      <c r="D50" s="168"/>
+      <c r="E50" s="168"/>
+      <c r="F50" s="168"/>
+      <c r="G50" s="168"/>
+      <c r="H50" s="168"/>
+      <c r="I50" s="168"/>
+      <c r="J50" s="168"/>
+      <c r="K50" s="168"/>
+      <c r="L50" s="168"/>
+      <c r="M50" s="168"/>
+      <c r="N50" s="168"/>
+      <c r="O50" s="168"/>
+      <c r="P50" s="168"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="167"/>
-      <c r="B51" s="167"/>
-      <c r="C51" s="167"/>
-      <c r="D51" s="167"/>
-      <c r="E51" s="167"/>
-      <c r="F51" s="167"/>
-      <c r="G51" s="167"/>
-      <c r="H51" s="167"/>
-      <c r="I51" s="167"/>
-      <c r="J51" s="167"/>
-      <c r="K51" s="167"/>
-      <c r="L51" s="167"/>
-      <c r="M51" s="167"/>
-      <c r="N51" s="167"/>
-      <c r="O51" s="167"/>
-      <c r="P51" s="167"/>
+      <c r="A51" s="168"/>
+      <c r="B51" s="168"/>
+      <c r="C51" s="168"/>
+      <c r="D51" s="168"/>
+      <c r="E51" s="168"/>
+      <c r="F51" s="168"/>
+      <c r="G51" s="168"/>
+      <c r="H51" s="168"/>
+      <c r="I51" s="168"/>
+      <c r="J51" s="168"/>
+      <c r="K51" s="168"/>
+      <c r="L51" s="168"/>
+      <c r="M51" s="168"/>
+      <c r="N51" s="168"/>
+      <c r="O51" s="168"/>
+      <c r="P51" s="168"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="168">
+      <c r="A53" s="151">
         <v>35000</v>
       </c>
-      <c r="B53" s="169">
+      <c r="B53" s="152">
         <v>45000</v>
       </c>
-      <c r="C53" s="170">
+      <c r="C53" s="153">
         <v>60000</v>
       </c>
-      <c r="D53" s="171">
+      <c r="D53" s="154">
         <v>60000</v>
       </c>
-      <c r="E53" s="172">
+      <c r="E53" s="155">
         <v>50000</v>
       </c>
-      <c r="F53" s="172">
+      <c r="F53" s="155">
         <v>50000</v>
       </c>
-      <c r="G53" s="172">
+      <c r="G53" s="155">
         <v>50000</v>
       </c>
-      <c r="H53" s="172">
+      <c r="H53" s="155">
         <v>50000</v>
       </c>
-      <c r="I53" s="172">
+      <c r="I53" s="155">
         <v>50000</v>
       </c>
-      <c r="J53" s="172">
+      <c r="J53" s="155">
         <v>50000</v>
       </c>
-      <c r="K53" s="172">
+      <c r="K53" s="155">
         <v>50000</v>
       </c>
-      <c r="L53" s="172">
+      <c r="L53" s="155">
         <v>50000</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="173">
+      <c r="A54" s="156">
         <f>A53/1000</f>
         <v>35</v>
       </c>
-      <c r="B54" s="173">
+      <c r="B54" s="156">
         <f t="shared" ref="B54:L54" si="0">B53/1000</f>
         <v>45</v>
       </c>
-      <c r="C54" s="173">
+      <c r="C54" s="156">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="D54" s="173">
+      <c r="D54" s="156">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E54" s="173">
+      <c r="E54" s="156">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="F54" s="173">
+      <c r="F54" s="156">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="G54" s="173">
+      <c r="G54" s="156">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H54" s="173">
+      <c r="H54" s="156">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="I54" s="173">
+      <c r="I54" s="156">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="J54" s="173">
+      <c r="J54" s="156">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="K54" s="173">
+      <c r="K54" s="156">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="L54" s="173">
+      <c r="L54" s="156">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="174">
-        <f>A54/600</f>
+      <c r="A56" s="157">
+        <f t="shared" ref="A56:L56" si="1">A54/600</f>
         <v>5.8333333333333334E-2</v>
       </c>
-      <c r="B56" s="174">
-        <f>B54/600</f>
+      <c r="B56" s="157">
+        <f t="shared" si="1"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="C56" s="174">
-        <f>C54/600</f>
+      <c r="C56" s="157">
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="D56" s="174">
-        <f>D54/600</f>
+      <c r="D56" s="157">
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="E56" s="174">
-        <f>E54/600</f>
+      <c r="E56" s="157">
+        <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F56" s="174">
-        <f>F54/600</f>
+      <c r="F56" s="157">
+        <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G56" s="174">
-        <f>G54/600</f>
+      <c r="G56" s="157">
+        <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H56" s="174">
-        <f>H54/600</f>
+      <c r="H56" s="157">
+        <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="I56" s="174">
-        <f>I54/600</f>
+      <c r="I56" s="157">
+        <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="J56" s="174">
-        <f>J54/600</f>
+      <c r="J56" s="157">
+        <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="K56" s="174">
-        <f>K54/600</f>
+      <c r="K56" s="157">
+        <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="L56" s="174">
-        <f>L54/600</f>
+      <c r="L56" s="157">
+        <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
@@ -7859,43 +8541,43 @@
         <v>541.67999999999995</v>
       </c>
       <c r="B59">
-        <f t="shared" ref="B59:L59" si="1">E22*4</f>
+        <f t="shared" ref="B59:K59" si="2">E22*4</f>
         <v>290.15199999999999</v>
       </c>
       <c r="C59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41.323999999999998</v>
       </c>
       <c r="D59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.068000000000001</v>
       </c>
       <c r="E59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.3879999999999999</v>
       </c>
       <c r="F59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6960000000000002</v>
       </c>
       <c r="G59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7921,7 +8603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8479271A-B906-9843-A70E-E376C4ED9263}">
   <dimension ref="A1:C21"/>
   <sheetViews>

--- a/inst/extdata/pandemic_legislation.xlsx
+++ b/inst/extdata/pandemic_legislation.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/fim/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B10F2C7-EB37-9941-896F-B120346649E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC0E68B-396C-3B40-A429-DA08A306A95F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="680" windowWidth="33600" windowHeight="19380" xr2:uid="{32B8EDEA-5FD5-412D-8D15-F127A7E2E8F1}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="33600" windowHeight="19520" activeTab="2" xr2:uid="{32B8EDEA-5FD5-412D-8D15-F127A7E2E8F1}"/>
   </bookViews>
   <sheets>
     <sheet name="RRA" sheetId="10" r:id="rId1"/>
     <sheet name="monthly" sheetId="2" r:id="rId2"/>
-    <sheet name="quarterly" sheetId="6" r:id="rId3"/>
-    <sheet name="annual" sheetId="7" r:id="rId4"/>
-    <sheet name="bea-monthly" sheetId="1" r:id="rId5"/>
-    <sheet name="bea-quarterly" sheetId="8" r:id="rId6"/>
-    <sheet name="cbo-annual" sheetId="5" r:id="rId7"/>
-    <sheet name="stimulus-annual" sheetId="9" r:id="rId8"/>
+    <sheet name="CARES" sheetId="12" r:id="rId3"/>
+    <sheet name="quarterly" sheetId="6" r:id="rId4"/>
+    <sheet name="annual" sheetId="7" r:id="rId5"/>
+    <sheet name="bea-monthly" sheetId="1" r:id="rId6"/>
+    <sheet name="bea-quarterly" sheetId="8" r:id="rId7"/>
+    <sheet name="cbo-annual" sheetId="5" r:id="rId8"/>
+    <sheet name="stimulus-annual" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="277">
   <si>
     <t>Levels</t>
   </si>
@@ -1045,9 +1046,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>RRA</t>
-  </si>
-  <si>
     <t>subsidies</t>
   </si>
   <si>
@@ -1114,12 +1112,6 @@
     <t>covid_prepardness_response</t>
   </si>
   <si>
-    <t>vaccines</t>
-  </si>
-  <si>
-    <t>supplemental_heealth_agency_funding</t>
-  </si>
-  <si>
     <t>medicare_sequester</t>
   </si>
   <si>
@@ -1147,9 +1139,6 @@
     <t>other_spending</t>
   </si>
   <si>
-    <t>housing_support</t>
-  </si>
-  <si>
     <t>minority_leaders_support</t>
   </si>
   <si>
@@ -1160,6 +1149,387 @@
   </si>
   <si>
     <t>transportation</t>
+  </si>
+  <si>
+    <t>snap</t>
+  </si>
+  <si>
+    <t>rra</t>
+  </si>
+  <si>
+    <t>federal_purchases</t>
+  </si>
+  <si>
+    <t>supplemental_health_agency_funding</t>
+  </si>
+  <si>
+    <t>federal_health_outlays</t>
+  </si>
+  <si>
+    <t>housing_subsidies</t>
+  </si>
+  <si>
+    <t>grants_covid_testing</t>
+  </si>
+  <si>
+    <t>vaccines_purchases</t>
+  </si>
+  <si>
+    <t>vaccines_distribution</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>What variable it affects</t>
+  </si>
+  <si>
+    <t>CARES</t>
+  </si>
+  <si>
+    <t>Title I - Keeping American Workers Paid and Employed Act (PPP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paycheck Protection Program (PPP) - $350 Billion </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>gfrcp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Federal Government Tax Receipts on Corporate Income; BUT in the BEA data it will be Table 3.13U.1 Federal Subsidies</t>
+    </r>
+  </si>
+  <si>
+    <t>Paycheck Protection Program and Health Care Enhancement Act</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paycheck Protection Program (PPP) - $320 Billion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expanded Unemployment Insurance (UI) - $268 Billion </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>gftfp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Federal Government Social Benefit Payments to Persons </t>
+    </r>
+  </si>
+  <si>
+    <t>Emergency Increase in Unemployment Compensation Benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recovery Rebates for Individuals (a) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Economic Impact Payments to Individuals (Stimulus checks) - $300 Billion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pandemic Relief for Aviation Workers - $32 Billion </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>gfrs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Contributions for Federal Government Social Insurance; BUT in the BEA data it will be Table 3.13U.1 Federal Subsidies</t>
+    </r>
+  </si>
+  <si>
+    <t>Coronavirus Relief Funds (grants to S&amp;L)</t>
+  </si>
+  <si>
+    <t>Grants to State and Local Governments - $340 Billion  (??? Where did they get 340?)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>gf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Federal Government Consumption &amp; Gross Investment; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">gfeg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Federal Grants-in-Aid to State &amp; Local Governments </t>
+    </r>
+  </si>
+  <si>
+    <t>Department of Health and Human Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support for Hospitals and Community Health Centers and other Health Support - $140 Billion </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>I THINK WE ACTUALLY NEED TO COUNT THIS AS PURCHASES. FOR TESTS AND HOSPITAL REVENUES. yptmd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Government Social Benefit Payments to Persons: Medicaid and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>yptmr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Government Social Benefit Payments to Persons: Medicare</t>
+    </r>
+  </si>
+  <si>
+    <t>FFCR</t>
+  </si>
+  <si>
+    <t>Title III - Supplemental SNAP Benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplemental Nutrition Assistance Program – $21.2 Billion </t>
+  </si>
+  <si>
+    <t>Title III - SNAP Waivers for Work Requirements</t>
+  </si>
+  <si>
+    <t>Federal Matching Assistance Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federal Matching Assistance Percentage (FMAP increase) - $50 Billion </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>yptmd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Government Social Benefit Payments to Persons: Medicaid (SAAR, Bil.$) </t>
+    </r>
+  </si>
+  <si>
+    <t>TAX CREDITS FOR PAID SICK LEAVE AND PAID FAMILY AND MEDICAL LEAVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax credits for Paid Sick Leave and Paid Family and Medical Leave - $105 Billion </t>
+  </si>
+  <si>
+    <t>Employee Retention Credit for Employers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee Retention Credit under the CARES Act - $55 Billion </t>
+  </si>
+  <si>
+    <t>Delay of Payment of Employer Payroll Taxes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deferral of Employer Payroll Taxes - $12 Billion </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">gfrs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Contributions for Federal Government Social Insurance</t>
+    </r>
+  </si>
+  <si>
+    <t>Modifications for Net Operating Losses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Various Other Tax Changes - $220 Billion </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>gfrcp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Federal Government Tax Receipts on Corporate Income and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>gfrpt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Federal Government Personal Current Tax Receipts </t>
+    </r>
+  </si>
+  <si>
+    <t>Modification of Limitation on Losses for Taxpayers Other Than Corporations</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>gftfp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Federal Government Social Benefit Payments to Persons OR GFTFP Income taxes??</t>
+    </r>
+  </si>
+  <si>
+    <t>CBO score title</t>
+  </si>
+  <si>
+    <t>BEA name</t>
+  </si>
+  <si>
+    <t>federal_payroll_taxes</t>
+  </si>
+  <si>
+    <t>federal_corporate_taxes</t>
+  </si>
+  <si>
+    <t>federal_social_benefits</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1543,7 @@
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1317,8 +1687,41 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="15"/>
+      <color rgb="FF191926"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1340,6 +1743,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1881,7 +2296,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2188,6 +2603,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2238,6 +2654,18 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2560,10 +2988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A649E31-A8B1-984D-A29C-20A5826B2B14}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A6" zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2594,16 +3022,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" t="s">
         <v>188</v>
-      </c>
-      <c r="B2" t="s">
-        <v>189</v>
       </c>
       <c r="C2" t="s">
         <v>189</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E2">
         <v>261</v>
@@ -2611,16 +3039,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" t="s">
         <v>188</v>
-      </c>
-      <c r="B3" t="s">
-        <v>189</v>
       </c>
       <c r="C3" t="s">
         <v>189</v>
       </c>
       <c r="D3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -2628,16 +3056,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" t="s">
         <v>188</v>
       </c>
-      <c r="B4" t="s">
-        <v>189</v>
-      </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E4">
         <v>15</v>
@@ -2645,16 +3073,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" t="s">
         <v>188</v>
-      </c>
-      <c r="B5" t="s">
-        <v>189</v>
       </c>
       <c r="C5" t="s">
         <v>189</v>
       </c>
       <c r="D5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E5">
         <v>15</v>
@@ -2662,16 +3090,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" t="s">
         <v>188</v>
-      </c>
-      <c r="B6" t="s">
-        <v>189</v>
       </c>
       <c r="C6" t="s">
         <v>189</v>
       </c>
       <c r="D6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E6">
         <v>3.5</v>
@@ -2679,16 +3107,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="B7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" t="s">
         <v>195</v>
       </c>
-      <c r="C7" t="s">
-        <v>189</v>
-      </c>
       <c r="D7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E7">
         <v>20.6</v>
@@ -2696,16 +3124,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" t="s">
         <v>188</v>
       </c>
-      <c r="B8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C8" t="s">
-        <v>189</v>
-      </c>
       <c r="D8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E8">
         <v>6.3</v>
@@ -2713,16 +3141,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="B9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" t="s">
         <v>198</v>
-      </c>
-      <c r="D9" t="s">
-        <v>199</v>
       </c>
       <c r="E9">
         <v>4.1399999999999997</v>
@@ -2730,16 +3158,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" t="s">
         <v>188</v>
       </c>
-      <c r="B10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10" t="s">
-        <v>189</v>
-      </c>
       <c r="D10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E10">
         <v>3.51</v>
@@ -2747,16 +3175,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" t="s">
         <v>188</v>
       </c>
-      <c r="B11" t="s">
-        <v>195</v>
-      </c>
-      <c r="C11" t="s">
-        <v>189</v>
-      </c>
       <c r="D11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E11">
         <v>3.43</v>
@@ -2764,16 +3192,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" t="s">
         <v>188</v>
       </c>
-      <c r="B12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C12" t="s">
-        <v>189</v>
-      </c>
       <c r="D12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E12">
         <v>1.6</v>
@@ -2781,16 +3209,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="B13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" t="s">
         <v>203</v>
       </c>
-      <c r="C13" t="s">
-        <v>204</v>
-      </c>
       <c r="D13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E13">
         <v>166</v>
@@ -2798,16 +3226,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="B14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" t="s">
         <v>205</v>
       </c>
-      <c r="C14" t="s">
-        <v>206</v>
-      </c>
       <c r="D14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E14">
         <v>123</v>
@@ -2815,16 +3243,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="B15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C15" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="D15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E15">
         <v>13.6</v>
@@ -2832,16 +3260,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="B16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E16">
         <v>11.2</v>
@@ -2849,101 +3277,89 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="B17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" t="s">
         <v>209</v>
-      </c>
-      <c r="C17" t="s">
-        <v>209</v>
-      </c>
-      <c r="D17" t="s">
-        <v>210</v>
       </c>
       <c r="E17">
         <v>37.4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B18" t="s">
-        <v>209</v>
-      </c>
+    <row r="18" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>209</v>
-      </c>
-      <c r="D18" t="s">
-        <v>211</v>
+        <v>214</v>
+      </c>
+      <c r="D18" s="158" t="s">
+        <v>229</v>
       </c>
       <c r="E18">
-        <v>33.700000000000003</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>188</v>
-      </c>
-      <c r="B19" t="s">
-        <v>209</v>
-      </c>
       <c r="C19" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="D19" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="E19">
-        <v>5.5</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="B20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C20" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="D20" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>32.799999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="B21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C21" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="D21" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C22" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="D22" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -2951,154 +3367,188 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C23" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="D23" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E23">
-        <v>58.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="B24" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C24" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="D24" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E24">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D25" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E25">
-        <v>10</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="B26" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C26" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="D26" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E26">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="B27" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C27" t="s">
+        <v>214</v>
+      </c>
+      <c r="D27" t="s">
         <v>217</v>
       </c>
-      <c r="D27" t="s">
-        <v>182</v>
-      </c>
       <c r="E27">
-        <v>21.2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="B28" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C28" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="D28" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E28">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="B29" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C29" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D29" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="E29">
-        <v>11.2</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="B30" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C30" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D30" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E30">
-        <v>7.4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>224</v>
+      </c>
+      <c r="B31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C31" t="s">
         <v>188</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" t="s">
+        <v>220</v>
+      </c>
+      <c r="E31">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>224</v>
+      </c>
+      <c r="B32" t="s">
+        <v>218</v>
+      </c>
+      <c r="C32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" t="s">
         <v>221</v>
       </c>
-      <c r="C31" t="s">
-        <v>217</v>
-      </c>
-      <c r="D31" t="s">
-        <v>226</v>
-      </c>
-      <c r="E31">
+      <c r="E32">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>224</v>
+      </c>
+      <c r="B33" t="s">
+        <v>218</v>
+      </c>
+      <c r="C33" t="s">
+        <v>214</v>
+      </c>
+      <c r="D33" t="s">
+        <v>222</v>
+      </c>
+      <c r="E33">
         <v>5.0199999999999996</v>
       </c>
     </row>
@@ -3338,6 +3788,844 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC92634C-D333-0247-BB3C-9FE3E5AE6B29}">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="64.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1">
+        <v>2020</v>
+      </c>
+      <c r="G1">
+        <v>2021</v>
+      </c>
+      <c r="H1">
+        <v>2022</v>
+      </c>
+      <c r="I1">
+        <v>2023</v>
+      </c>
+      <c r="J1">
+        <v>2024</v>
+      </c>
+      <c r="K1">
+        <v>2025</v>
+      </c>
+      <c r="L1">
+        <v>2026</v>
+      </c>
+      <c r="M1">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="192" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="176" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="176" t="s">
+        <v>237</v>
+      </c>
+      <c r="E2" s="176" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2">
+        <v>377</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="192" x14ac:dyDescent="0.2">
+      <c r="A3" s="177" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="176" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" s="176" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" s="176" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3">
+        <v>321.3</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="176" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4" s="176" t="s">
+        <v>241</v>
+      </c>
+      <c r="E4" s="176" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="176" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="176" t="s">
+        <v>241</v>
+      </c>
+      <c r="E5" s="176" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5">
+        <v>175</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="176" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" s="176" t="s">
+        <v>241</v>
+      </c>
+      <c r="E6" s="176" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>39</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" s="176" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" s="176" t="s">
+        <v>241</v>
+      </c>
+      <c r="E7" s="176" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7">
+        <v>139</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="238" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="176" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8" s="176" t="s">
+        <v>246</v>
+      </c>
+      <c r="E8" s="176" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8">
+        <v>22</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="176" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" s="178" t="s">
+        <v>248</v>
+      </c>
+      <c r="D9" s="178" t="s">
+        <v>249</v>
+      </c>
+      <c r="E9" s="178" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9">
+        <v>150</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="380" x14ac:dyDescent="0.2">
+      <c r="A10" s="177" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" s="176" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10" s="179" t="s">
+        <v>252</v>
+      </c>
+      <c r="E10" s="179" t="s">
+        <v>225</v>
+      </c>
+      <c r="F10">
+        <v>51.6</v>
+      </c>
+      <c r="G10">
+        <v>42.2</v>
+      </c>
+      <c r="H10">
+        <v>4.2</v>
+      </c>
+      <c r="I10">
+        <v>1.2</v>
+      </c>
+      <c r="J10">
+        <v>0.4</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="A11" s="177" t="s">
+        <v>253</v>
+      </c>
+      <c r="B11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C11" s="176" t="s">
+        <v>255</v>
+      </c>
+      <c r="D11" s="176" t="s">
+        <v>241</v>
+      </c>
+      <c r="E11" s="176" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G11">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="A12" s="177" t="s">
+        <v>253</v>
+      </c>
+      <c r="B12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" s="176" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12" s="176" t="s">
+        <v>241</v>
+      </c>
+      <c r="E12" s="176" t="s">
+        <v>197</v>
+      </c>
+      <c r="F12">
+        <v>0.63</v>
+      </c>
+      <c r="G12">
+        <v>2.1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+      <c r="A13" s="177" t="s">
+        <v>253</v>
+      </c>
+      <c r="B13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" s="176" t="s">
+        <v>258</v>
+      </c>
+      <c r="D13" s="176" t="s">
+        <v>259</v>
+      </c>
+      <c r="E13" s="176" t="s">
+        <v>227</v>
+      </c>
+      <c r="F13">
+        <v>29.1</v>
+      </c>
+      <c r="G13">
+        <v>20.8</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="238" x14ac:dyDescent="0.2">
+      <c r="A14" s="177" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" t="s">
+        <v>260</v>
+      </c>
+      <c r="C14" s="176" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" s="176" t="s">
+        <v>246</v>
+      </c>
+      <c r="E14" s="176" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14">
+        <v>8.6</v>
+      </c>
+      <c r="G14">
+        <v>1.5</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="238" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B15" t="s">
+        <v>262</v>
+      </c>
+      <c r="C15" s="176" t="s">
+        <v>263</v>
+      </c>
+      <c r="D15" s="176" t="s">
+        <v>246</v>
+      </c>
+      <c r="E15" s="176" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15">
+        <v>-47</v>
+      </c>
+      <c r="G15">
+        <v>-5</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" s="176" t="s">
+        <v>265</v>
+      </c>
+      <c r="D16" s="176" t="s">
+        <v>266</v>
+      </c>
+      <c r="E16" s="176" t="s">
+        <v>274</v>
+      </c>
+      <c r="F16">
+        <v>-211</v>
+      </c>
+      <c r="G16">
+        <v>-141</v>
+      </c>
+      <c r="H16">
+        <v>171</v>
+      </c>
+      <c r="I16">
+        <v>169</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="176" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" t="s">
+        <v>267</v>
+      </c>
+      <c r="C17" s="176" t="s">
+        <v>268</v>
+      </c>
+      <c r="D17" s="176" t="s">
+        <v>269</v>
+      </c>
+      <c r="E17" s="176" t="s">
+        <v>275</v>
+      </c>
+      <c r="F17">
+        <v>-80</v>
+      </c>
+      <c r="G17">
+        <v>-9</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>9</v>
+      </c>
+      <c r="K17">
+        <v>13</v>
+      </c>
+      <c r="L17">
+        <v>13</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="176" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>234</v>
+      </c>
+      <c r="B18" t="s">
+        <v>270</v>
+      </c>
+      <c r="C18" s="176" t="s">
+        <v>268</v>
+      </c>
+      <c r="D18" s="176" t="s">
+        <v>269</v>
+      </c>
+      <c r="E18" s="176" t="s">
+        <v>275</v>
+      </c>
+      <c r="F18">
+        <v>-74</v>
+      </c>
+      <c r="G18">
+        <v>-64</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="170" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>234</v>
+      </c>
+      <c r="B19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" s="176" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="176" t="s">
+        <v>271</v>
+      </c>
+      <c r="E19" s="176" t="s">
+        <v>276</v>
+      </c>
+      <c r="F19">
+        <v>-131</v>
+      </c>
+      <c r="G19">
+        <v>-11</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="238" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>253</v>
+      </c>
+      <c r="B20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C20" s="176" t="s">
+        <v>261</v>
+      </c>
+      <c r="D20" s="176" t="s">
+        <v>246</v>
+      </c>
+      <c r="E20" s="176" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20">
+        <v>-80.5</v>
+      </c>
+      <c r="G20">
+        <v>-14.2</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A83CAF-5C60-524C-BBCE-DFEAD13E2D00}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -3415,7 +4703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42E7E7A-1813-1D4C-9381-12D9A6751513}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -3573,7 +4861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43063354-354D-43F4-BA31-2DC297D0C41A}">
   <dimension ref="A1:Q90"/>
   <sheetViews>
@@ -3598,92 +4886,92 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="159" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158"/>
-      <c r="M2" s="158"/>
-      <c r="N2" s="158"/>
-      <c r="O2" s="158"/>
-      <c r="P2" s="158"/>
-      <c r="Q2" s="158"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="159"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="159" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
-      <c r="N3" s="158"/>
-      <c r="O3" s="158"/>
-      <c r="P3" s="158"/>
-      <c r="Q3" s="158"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="159"/>
+      <c r="Q3" s="159"/>
     </row>
     <row r="4" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="159"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="158"/>
-      <c r="M4" s="158"/>
-      <c r="N4" s="158"/>
+      <c r="A4" s="160"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="161"/>
-      <c r="J5" s="162"/>
+      <c r="C5" s="161" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="162"/>
+      <c r="I5" s="162"/>
+      <c r="J5" s="163"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="163">
+      <c r="C6" s="164">
         <v>2020</v>
       </c>
-      <c r="D6" s="164"/>
-      <c r="E6" s="164"/>
-      <c r="F6" s="164"/>
-      <c r="G6" s="164"/>
-      <c r="H6" s="164"/>
-      <c r="I6" s="164"/>
-      <c r="J6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="166"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
@@ -5467,7 +6755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66061241-D2E5-254C-A728-630365842011}">
   <dimension ref="A1:M90"/>
   <sheetViews>
@@ -5482,88 +6770,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J1" s="167" t="s">
+      <c r="J1" s="168" t="s">
         <v>130</v>
       </c>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="159" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158"/>
-      <c r="M2" s="158"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="159" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
     </row>
     <row r="4" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="158"/>
-      <c r="B4" s="158"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="158"/>
+      <c r="A4" s="159"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="162"/>
+      <c r="C5" s="161" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="163"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="163">
+      <c r="C6" s="164">
         <v>2019</v>
       </c>
-      <c r="D6" s="164"/>
-      <c r="E6" s="164"/>
-      <c r="F6" s="166">
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="167">
         <v>2020</v>
       </c>
-      <c r="G6" s="164"/>
-      <c r="H6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="166"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
@@ -6971,7 +8259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19945DE2-1D98-6641-B7A4-77D39C7DDCD9}">
   <dimension ref="A1:P62"/>
   <sheetViews>
@@ -6995,24 +8283,24 @@
       <c r="C2" s="63"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="170" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
-      <c r="K5" s="170"/>
-      <c r="L5" s="170"/>
-      <c r="M5" s="170"/>
-      <c r="N5" s="170"/>
-      <c r="O5" s="170"/>
-      <c r="P5" s="170"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="171"/>
+      <c r="K5" s="171"/>
+      <c r="L5" s="171"/>
+      <c r="M5" s="171"/>
+      <c r="N5" s="171"/>
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="64" t="s">
@@ -7067,10 +8355,10 @@
       <c r="L8" s="53"/>
       <c r="M8" s="53"/>
       <c r="N8" s="53"/>
-      <c r="O8" s="171" t="s">
+      <c r="O8" s="172" t="s">
         <v>86</v>
       </c>
-      <c r="P8" s="171"/>
+      <c r="P8" s="172"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="53"/>
@@ -8097,96 +9385,96 @@
       <c r="P35" s="75"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="172" t="s">
+      <c r="A36" s="173" t="s">
         <v>124</v>
       </c>
-      <c r="B36" s="172"/>
-      <c r="C36" s="172"/>
-      <c r="D36" s="172"/>
-      <c r="E36" s="172"/>
-      <c r="F36" s="172"/>
-      <c r="G36" s="172"/>
-      <c r="H36" s="172"/>
-      <c r="I36" s="172"/>
-      <c r="J36" s="172"/>
-      <c r="K36" s="172"/>
-      <c r="L36" s="172"/>
-      <c r="M36" s="172"/>
-      <c r="N36" s="172"/>
-      <c r="O36" s="172"/>
-      <c r="P36" s="172"/>
+      <c r="B36" s="173"/>
+      <c r="C36" s="173"/>
+      <c r="D36" s="173"/>
+      <c r="E36" s="173"/>
+      <c r="F36" s="173"/>
+      <c r="G36" s="173"/>
+      <c r="H36" s="173"/>
+      <c r="I36" s="173"/>
+      <c r="J36" s="173"/>
+      <c r="K36" s="173"/>
+      <c r="L36" s="173"/>
+      <c r="M36" s="173"/>
+      <c r="N36" s="173"/>
+      <c r="O36" s="173"/>
+      <c r="P36" s="173"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="172"/>
-      <c r="B37" s="172"/>
-      <c r="C37" s="172"/>
-      <c r="D37" s="172"/>
-      <c r="E37" s="172"/>
-      <c r="F37" s="172"/>
-      <c r="G37" s="172"/>
-      <c r="H37" s="172"/>
-      <c r="I37" s="172"/>
-      <c r="J37" s="172"/>
-      <c r="K37" s="172"/>
-      <c r="L37" s="172"/>
-      <c r="M37" s="172"/>
-      <c r="N37" s="172"/>
-      <c r="O37" s="172"/>
-      <c r="P37" s="172"/>
+      <c r="A37" s="173"/>
+      <c r="B37" s="173"/>
+      <c r="C37" s="173"/>
+      <c r="D37" s="173"/>
+      <c r="E37" s="173"/>
+      <c r="F37" s="173"/>
+      <c r="G37" s="173"/>
+      <c r="H37" s="173"/>
+      <c r="I37" s="173"/>
+      <c r="J37" s="173"/>
+      <c r="K37" s="173"/>
+      <c r="L37" s="173"/>
+      <c r="M37" s="173"/>
+      <c r="N37" s="173"/>
+      <c r="O37" s="173"/>
+      <c r="P37" s="173"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="172"/>
-      <c r="B38" s="172"/>
-      <c r="C38" s="172"/>
-      <c r="D38" s="172"/>
-      <c r="E38" s="172"/>
-      <c r="F38" s="172"/>
-      <c r="G38" s="172"/>
-      <c r="H38" s="172"/>
-      <c r="I38" s="172"/>
-      <c r="J38" s="172"/>
-      <c r="K38" s="172"/>
-      <c r="L38" s="172"/>
-      <c r="M38" s="172"/>
-      <c r="N38" s="172"/>
-      <c r="O38" s="172"/>
-      <c r="P38" s="172"/>
+      <c r="A38" s="173"/>
+      <c r="B38" s="173"/>
+      <c r="C38" s="173"/>
+      <c r="D38" s="173"/>
+      <c r="E38" s="173"/>
+      <c r="F38" s="173"/>
+      <c r="G38" s="173"/>
+      <c r="H38" s="173"/>
+      <c r="I38" s="173"/>
+      <c r="J38" s="173"/>
+      <c r="K38" s="173"/>
+      <c r="L38" s="173"/>
+      <c r="M38" s="173"/>
+      <c r="N38" s="173"/>
+      <c r="O38" s="173"/>
+      <c r="P38" s="173"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="172"/>
-      <c r="B39" s="172"/>
-      <c r="C39" s="172"/>
-      <c r="D39" s="172"/>
-      <c r="E39" s="172"/>
-      <c r="F39" s="172"/>
-      <c r="G39" s="172"/>
-      <c r="H39" s="172"/>
-      <c r="I39" s="172"/>
-      <c r="J39" s="172"/>
-      <c r="K39" s="172"/>
-      <c r="L39" s="172"/>
-      <c r="M39" s="172"/>
-      <c r="N39" s="172"/>
-      <c r="O39" s="172"/>
-      <c r="P39" s="172"/>
+      <c r="A39" s="173"/>
+      <c r="B39" s="173"/>
+      <c r="C39" s="173"/>
+      <c r="D39" s="173"/>
+      <c r="E39" s="173"/>
+      <c r="F39" s="173"/>
+      <c r="G39" s="173"/>
+      <c r="H39" s="173"/>
+      <c r="I39" s="173"/>
+      <c r="J39" s="173"/>
+      <c r="K39" s="173"/>
+      <c r="L39" s="173"/>
+      <c r="M39" s="173"/>
+      <c r="N39" s="173"/>
+      <c r="O39" s="173"/>
+      <c r="P39" s="173"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="172"/>
-      <c r="B40" s="172"/>
-      <c r="C40" s="172"/>
-      <c r="D40" s="172"/>
-      <c r="E40" s="172"/>
-      <c r="F40" s="172"/>
-      <c r="G40" s="172"/>
-      <c r="H40" s="172"/>
-      <c r="I40" s="172"/>
-      <c r="J40" s="172"/>
-      <c r="K40" s="172"/>
-      <c r="L40" s="172"/>
-      <c r="M40" s="172"/>
-      <c r="N40" s="172"/>
-      <c r="O40" s="172"/>
-      <c r="P40" s="172"/>
+      <c r="A40" s="173"/>
+      <c r="B40" s="173"/>
+      <c r="C40" s="173"/>
+      <c r="D40" s="173"/>
+      <c r="E40" s="173"/>
+      <c r="F40" s="173"/>
+      <c r="G40" s="173"/>
+      <c r="H40" s="173"/>
+      <c r="I40" s="173"/>
+      <c r="J40" s="173"/>
+      <c r="K40" s="173"/>
+      <c r="L40" s="173"/>
+      <c r="M40" s="173"/>
+      <c r="N40" s="173"/>
+      <c r="O40" s="173"/>
+      <c r="P40" s="173"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="77"/>
@@ -8207,60 +9495,60 @@
       <c r="P41" s="77"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="172" t="s">
+      <c r="A42" s="173" t="s">
         <v>125</v>
       </c>
-      <c r="B42" s="172"/>
-      <c r="C42" s="172"/>
-      <c r="D42" s="172"/>
-      <c r="E42" s="172"/>
-      <c r="F42" s="172"/>
-      <c r="G42" s="172"/>
-      <c r="H42" s="172"/>
-      <c r="I42" s="172"/>
-      <c r="J42" s="172"/>
-      <c r="K42" s="172"/>
-      <c r="L42" s="172"/>
-      <c r="M42" s="172"/>
-      <c r="N42" s="172"/>
-      <c r="O42" s="172"/>
-      <c r="P42" s="172"/>
+      <c r="B42" s="173"/>
+      <c r="C42" s="173"/>
+      <c r="D42" s="173"/>
+      <c r="E42" s="173"/>
+      <c r="F42" s="173"/>
+      <c r="G42" s="173"/>
+      <c r="H42" s="173"/>
+      <c r="I42" s="173"/>
+      <c r="J42" s="173"/>
+      <c r="K42" s="173"/>
+      <c r="L42" s="173"/>
+      <c r="M42" s="173"/>
+      <c r="N42" s="173"/>
+      <c r="O42" s="173"/>
+      <c r="P42" s="173"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="172"/>
-      <c r="B43" s="172"/>
-      <c r="C43" s="172"/>
-      <c r="D43" s="172"/>
-      <c r="E43" s="172"/>
-      <c r="F43" s="172"/>
-      <c r="G43" s="172"/>
-      <c r="H43" s="172"/>
-      <c r="I43" s="172"/>
-      <c r="J43" s="172"/>
-      <c r="K43" s="172"/>
-      <c r="L43" s="172"/>
-      <c r="M43" s="172"/>
-      <c r="N43" s="172"/>
-      <c r="O43" s="172"/>
-      <c r="P43" s="172"/>
+      <c r="A43" s="173"/>
+      <c r="B43" s="173"/>
+      <c r="C43" s="173"/>
+      <c r="D43" s="173"/>
+      <c r="E43" s="173"/>
+      <c r="F43" s="173"/>
+      <c r="G43" s="173"/>
+      <c r="H43" s="173"/>
+      <c r="I43" s="173"/>
+      <c r="J43" s="173"/>
+      <c r="K43" s="173"/>
+      <c r="L43" s="173"/>
+      <c r="M43" s="173"/>
+      <c r="N43" s="173"/>
+      <c r="O43" s="173"/>
+      <c r="P43" s="173"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="172"/>
-      <c r="B44" s="172"/>
-      <c r="C44" s="172"/>
-      <c r="D44" s="172"/>
-      <c r="E44" s="172"/>
-      <c r="F44" s="172"/>
-      <c r="G44" s="172"/>
-      <c r="H44" s="172"/>
-      <c r="I44" s="172"/>
-      <c r="J44" s="172"/>
-      <c r="K44" s="172"/>
-      <c r="L44" s="172"/>
-      <c r="M44" s="172"/>
-      <c r="N44" s="172"/>
-      <c r="O44" s="172"/>
-      <c r="P44" s="172"/>
+      <c r="A44" s="173"/>
+      <c r="B44" s="173"/>
+      <c r="C44" s="173"/>
+      <c r="D44" s="173"/>
+      <c r="E44" s="173"/>
+      <c r="F44" s="173"/>
+      <c r="G44" s="173"/>
+      <c r="H44" s="173"/>
+      <c r="I44" s="173"/>
+      <c r="J44" s="173"/>
+      <c r="K44" s="173"/>
+      <c r="L44" s="173"/>
+      <c r="M44" s="173"/>
+      <c r="N44" s="173"/>
+      <c r="O44" s="173"/>
+      <c r="P44" s="173"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="75"/>
@@ -8281,42 +9569,42 @@
       <c r="P45" s="75"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="173" t="s">
+      <c r="A46" s="174" t="s">
         <v>126</v>
       </c>
-      <c r="B46" s="174"/>
-      <c r="C46" s="174"/>
-      <c r="D46" s="174"/>
-      <c r="E46" s="174"/>
-      <c r="F46" s="174"/>
-      <c r="G46" s="174"/>
-      <c r="H46" s="174"/>
-      <c r="I46" s="174"/>
-      <c r="J46" s="174"/>
-      <c r="K46" s="174"/>
-      <c r="L46" s="174"/>
-      <c r="M46" s="174"/>
-      <c r="N46" s="174"/>
-      <c r="O46" s="174"/>
-      <c r="P46" s="174"/>
+      <c r="B46" s="175"/>
+      <c r="C46" s="175"/>
+      <c r="D46" s="175"/>
+      <c r="E46" s="175"/>
+      <c r="F46" s="175"/>
+      <c r="G46" s="175"/>
+      <c r="H46" s="175"/>
+      <c r="I46" s="175"/>
+      <c r="J46" s="175"/>
+      <c r="K46" s="175"/>
+      <c r="L46" s="175"/>
+      <c r="M46" s="175"/>
+      <c r="N46" s="175"/>
+      <c r="O46" s="175"/>
+      <c r="P46" s="175"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="174"/>
-      <c r="B47" s="174"/>
-      <c r="C47" s="174"/>
-      <c r="D47" s="174"/>
-      <c r="E47" s="174"/>
-      <c r="F47" s="174"/>
-      <c r="G47" s="174"/>
-      <c r="H47" s="174"/>
-      <c r="I47" s="174"/>
-      <c r="J47" s="174"/>
-      <c r="K47" s="174"/>
-      <c r="L47" s="174"/>
-      <c r="M47" s="174"/>
-      <c r="N47" s="174"/>
-      <c r="O47" s="174"/>
-      <c r="P47" s="174"/>
+      <c r="A47" s="175"/>
+      <c r="B47" s="175"/>
+      <c r="C47" s="175"/>
+      <c r="D47" s="175"/>
+      <c r="E47" s="175"/>
+      <c r="F47" s="175"/>
+      <c r="G47" s="175"/>
+      <c r="H47" s="175"/>
+      <c r="I47" s="175"/>
+      <c r="J47" s="175"/>
+      <c r="K47" s="175"/>
+      <c r="L47" s="175"/>
+      <c r="M47" s="175"/>
+      <c r="N47" s="175"/>
+      <c r="O47" s="175"/>
+      <c r="P47" s="175"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="75"/>
@@ -8337,60 +9625,60 @@
       <c r="P48" s="75"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="168" t="s">
+      <c r="A49" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="B49" s="168"/>
-      <c r="C49" s="168"/>
-      <c r="D49" s="168"/>
-      <c r="E49" s="168"/>
-      <c r="F49" s="168"/>
-      <c r="G49" s="168"/>
-      <c r="H49" s="168"/>
-      <c r="I49" s="168"/>
-      <c r="J49" s="168"/>
-      <c r="K49" s="168"/>
-      <c r="L49" s="168"/>
-      <c r="M49" s="168"/>
-      <c r="N49" s="168"/>
-      <c r="O49" s="168"/>
-      <c r="P49" s="168"/>
+      <c r="B49" s="169"/>
+      <c r="C49" s="169"/>
+      <c r="D49" s="169"/>
+      <c r="E49" s="169"/>
+      <c r="F49" s="169"/>
+      <c r="G49" s="169"/>
+      <c r="H49" s="169"/>
+      <c r="I49" s="169"/>
+      <c r="J49" s="169"/>
+      <c r="K49" s="169"/>
+      <c r="L49" s="169"/>
+      <c r="M49" s="169"/>
+      <c r="N49" s="169"/>
+      <c r="O49" s="169"/>
+      <c r="P49" s="169"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="168"/>
-      <c r="B50" s="168"/>
-      <c r="C50" s="168"/>
-      <c r="D50" s="168"/>
-      <c r="E50" s="168"/>
-      <c r="F50" s="168"/>
-      <c r="G50" s="168"/>
-      <c r="H50" s="168"/>
-      <c r="I50" s="168"/>
-      <c r="J50" s="168"/>
-      <c r="K50" s="168"/>
-      <c r="L50" s="168"/>
-      <c r="M50" s="168"/>
-      <c r="N50" s="168"/>
-      <c r="O50" s="168"/>
-      <c r="P50" s="168"/>
+      <c r="A50" s="169"/>
+      <c r="B50" s="169"/>
+      <c r="C50" s="169"/>
+      <c r="D50" s="169"/>
+      <c r="E50" s="169"/>
+      <c r="F50" s="169"/>
+      <c r="G50" s="169"/>
+      <c r="H50" s="169"/>
+      <c r="I50" s="169"/>
+      <c r="J50" s="169"/>
+      <c r="K50" s="169"/>
+      <c r="L50" s="169"/>
+      <c r="M50" s="169"/>
+      <c r="N50" s="169"/>
+      <c r="O50" s="169"/>
+      <c r="P50" s="169"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="168"/>
-      <c r="B51" s="168"/>
-      <c r="C51" s="168"/>
-      <c r="D51" s="168"/>
-      <c r="E51" s="168"/>
-      <c r="F51" s="168"/>
-      <c r="G51" s="168"/>
-      <c r="H51" s="168"/>
-      <c r="I51" s="168"/>
-      <c r="J51" s="168"/>
-      <c r="K51" s="168"/>
-      <c r="L51" s="168"/>
-      <c r="M51" s="168"/>
-      <c r="N51" s="168"/>
-      <c r="O51" s="168"/>
-      <c r="P51" s="168"/>
+      <c r="A51" s="169"/>
+      <c r="B51" s="169"/>
+      <c r="C51" s="169"/>
+      <c r="D51" s="169"/>
+      <c r="E51" s="169"/>
+      <c r="F51" s="169"/>
+      <c r="G51" s="169"/>
+      <c r="H51" s="169"/>
+      <c r="I51" s="169"/>
+      <c r="J51" s="169"/>
+      <c r="K51" s="169"/>
+      <c r="L51" s="169"/>
+      <c r="M51" s="169"/>
+      <c r="N51" s="169"/>
+      <c r="O51" s="169"/>
+      <c r="P51" s="169"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="151">
@@ -8603,7 +9891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8479271A-B906-9843-A70E-E376C4ED9263}">
   <dimension ref="A1:C21"/>
   <sheetViews>
